--- a/claimed_invoices.xlsx
+++ b/claimed_invoices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\newproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46247130-1775-41E2-823B-F0D8011983EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C447B5-2F9B-41F5-B2F3-5779A3BBC14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>File Name</t>
   </si>
@@ -40,6 +40,9 @@
     <t>File Hash</t>
   </si>
   <si>
+    <t>String Extracted</t>
+  </si>
+  <si>
     <t>ketan-medicalbill1052024211446776.pdf</t>
   </si>
   <si>
@@ -118,7 +121,7 @@
     <t>OLA</t>
   </si>
   <si>
-    <t>1014</t>
+    <t>1014.0</t>
   </si>
   <si>
     <t>1abd07d5b7fb234d6d49024b2906e8c8</t>
@@ -133,7 +136,7 @@
     <t>diwnyqudd457539</t>
   </si>
   <si>
-    <t>1492</t>
+    <t>1492.0</t>
   </si>
   <si>
     <t>c596f41de2d2627dcb9372f93225dd85</t>
@@ -148,7 +151,7 @@
     <t>diizhgkyl457100</t>
   </si>
   <si>
-    <t>620</t>
+    <t>620.0</t>
   </si>
   <si>
     <t>824c0e8b515b86f48b76da5f0aaf6394</t>
@@ -163,7 +166,7 @@
     <t>THE OBEROI</t>
   </si>
   <si>
-    <t>15865.10</t>
+    <t>15865.1</t>
   </si>
   <si>
     <t>06eb06c65d21b0b09d25e5e68ef69998</t>
@@ -175,7 +178,7 @@
     <t>April 4, 2024</t>
   </si>
   <si>
-    <t>615.00</t>
+    <t>615.0</t>
   </si>
   <si>
     <t>8c1dea503a91e0260458b281ad2e621d</t>
@@ -187,7 +190,7 @@
     <t>April 5, 2024</t>
   </si>
   <si>
-    <t>616.00</t>
+    <t>616.0</t>
   </si>
   <si>
     <t>350d5b305261da05efb9dd4723d269cc</t>
@@ -199,22 +202,62 @@
     <t>April 6, 2024</t>
   </si>
   <si>
-    <t>620.00</t>
-  </si>
-  <si>
     <t>8ce6e9ff03ec57419c7e16350233f43d</t>
   </si>
   <si>
     <t>uber-42542024183234139.pdf</t>
   </si>
   <si>
-    <t>Invoice Not Found</t>
-  </si>
-  <si>
-    <t>294.00</t>
+    <t>294.0</t>
   </si>
   <si>
     <t>ccba166ba48427d4784d28020b7b188d</t>
+  </si>
+  <si>
+    <t>uber2542024182742481.pdf</t>
+  </si>
+  <si>
+    <t>April 3, 2024</t>
+  </si>
+  <si>
+    <t>MH01CR1759</t>
+  </si>
+  <si>
+    <t>626.00</t>
+  </si>
+  <si>
+    <t>5e650919a4190bb9667a920bbe4467d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+April 3, 2024
+Here's your receipt for your ride, Nikesh
+We hope you enjoyed your ride this evening.
+Total ₹626.00
+Trip Charge ₹689.08
+Subtotal ₹689.08
+Mulund East Northbound ₹47.25
+Rounding ₹0.12
+Promotion -₹110.45
+Payments
+Cash
+₹626.00
+4/3/24 9:58 PM
+Visit the trip page for more information, including invoices (where available)
+The total of ₹626.00 has a GST of ₹30.78 included.
+You rode with MOHAMMAD
+License Plate: MH01CR1759
+Uber Go 46.47 kilometers | 1 h 30
+min
+8:27 PM | 5, Bandar Kurla Complex Rd, Bandra Kurla Complex, Bandra East, Mumbai, Maharashtra 400051, India
+9:58 PM | 64WM+35V, Kala Talav, Vishnu Nagar, Kalyan, Maharashtra 421301, India
+Fares are inclusive of GST. Please download the tax invoice from the trip detail page for a full tax breakdown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
@@ -577,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" activeCellId="1" sqref="D16 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,10 +633,11 @@
     <col min="3" max="3" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,242 +656,281 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
       </c>
       <c r="F12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
